--- a/biology/Botanique/Kensington_Gardens/Kensington_Gardens.xlsx
+++ b/biology/Botanique/Kensington_Gardens/Kensington_Gardens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Kensington Gardens, autrefois les jardins privés du palais de Kensington, sont l'un des parcs royaux de Londres et se trouvent immédiatement à l'ouest de Hyde Park. La majorité du parc se trouve dans la Cité de Westminster mais une petite partie est située dans le borough royal de Kensington et Chelsea. Le parc couvre une superficie de 1,1 km2.
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kensington Gardens, à l'origine, est un lieu de loisirs pour les rois britanniques. Les jardins font partie de Hyde Park, immense terrain de chasse du roi Henri VIII.
 En 1689, les nouveaux roi et reine, Guillaume III et Marie II, ont pris les premières dispositions pour créer un parc distinct. Ces jardins sont le cadre du palais de Kensington, résidence privée royale des deux souverains. William III a acheté cette partie d'Hyde Park car, souffrant d'asthme, il y trouvait à la fois un lieu calme et un air sain. Aussi, il appela l'architecte Christopher Wren qui lui a construit une résidence en briques rouges, le palais de Kensington. La reine Marie créa, au palais, un jardin composé de massifs de fleurs et de haies. Le style est hollandais afin que Guillaume III, originaire de Hollande, se sente chez lui.
@@ -551,25 +565,15 @@
           <t>Statues et monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parc est un jardin commémoratif. En effet, nombre de monuments à la mémoire de personnages célèbres de l'empire britannique parsèment le parc.
 			Le palais de Kensington et la statue de la reine Victoria.
 			Vue sur le Round Pond.
 			Flower Walk.
 			Jardins d'eau à l'italienne, Kensington Gardens.
-Le mémorial du prince Albert
-Le mémorial du prince Albert est le monument le plus imposant du parc de Kensington.
-Après la mort à 42 ans du prince Albert, époux de la reine Victoria, on décida de lui construire un monument commémoratif. Influencé par les douze croix de pierre (dont la plus célèbre, la Charing Cross) édifiées par le roi Édouard Ier à la mémoire de son épouse Aliénor et par d'autres statues à Édimbourg ou Manchester.
-Officiellement appelé Prince Consort National Memorial, ce monument met en exergue les réussites de l'empire victorien ainsi que les loisirs et passions du prince Albert. Des statues de marbre représentant l'Europe, l'Asie, l'Afrique et l'Amérique sont disposés à chacun des angles du monument tandis que, plus haut, d'autres statues incarnent l'industrie, le commerce, l'agriculture et l'ingénierie. Encore plus haut, près du sommet, des statues en bronze dorée représentent des anges et les vertus. À la base du monument, tout autour, des frises dépeignent des peintres, poètes, sculpteurs, musiciens et architectes célèbres, reflétant le goût du prince Albert pour l'art.
-La Serpentine Gallery
-La Serpentine Gallery est, depuis 1970, un musée d'art contemporain à l'intérieur de Kensington Gardens. Chaque été, le musée demande à l'un des plus éminents architectes de construire un pavillon provisoire ; on a notamment pu y voir les œuvres architecturales de Zaha Hadid en 2000, Daniel Libeskind en 2001, Toyō Itō en 2002, Oscar Niemeyer en 2003,  Alvaro Siza en 2005 et Eduardo Souto de Moura, Rem Koolhaas Cecil Balmond et Ove Arup en 2006, Olafur Eliasson, Cecil Balmond et Kjetil Thorsen en 2007, Frank Gehry en 2007, SANAA en 2009, Jean Nouvel en 2010, Peter Zumthor en 2011, Ai Weiwei et Herzog &amp; de Meuron en 2012, Sou Fujimoto en 2013.
-L'orangerie
-Limitrophe du Palais de Kensington, l'Orangery fut construite par la Reine Anne en 1704. Bâtiment en briques, l'intérieur (qui accueille aujourd'hui un point restauration) est garni de colonnes corinthiennes soutenant un magnifique entablement.
-Le Diana Memorial Playground
-Un énorme bateau pirate est le joyau du mini "Parc de loisirs" pour enfants, ouvert en 2000 à la mémoire de la Princesse Diana qui appréciait l'innocence des enfants. Le Diana Memorial Playground est situé juste à côté du Palais de Kensington. Ce pays merveilleux est inspiré de Peter Pan.
-Le Queen Caroline's Temple
-On doit à la Reine Caroline et à son jardinier les Kensington Gardens tels qu'ils sont connus aujourd'hui. Outre le Round Pound, la Long Water, elle y a fait ajouter également deux résidences d'été dont une existe encore aujourd'hui sous le nom Queen Caroline's Temple.
 </t>
         </is>
       </c>
@@ -595,10 +599,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Statues et autres monuments</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Statues et monuments</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le mémorial du prince Albert</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mémorial du prince Albert est le monument le plus imposant du parc de Kensington.
+Après la mort à 42 ans du prince Albert, époux de la reine Victoria, on décida de lui construire un monument commémoratif. Influencé par les douze croix de pierre (dont la plus célèbre, la Charing Cross) édifiées par le roi Édouard Ier à la mémoire de son épouse Aliénor et par d'autres statues à Édimbourg ou Manchester.
+Officiellement appelé Prince Consort National Memorial, ce monument met en exergue les réussites de l'empire victorien ainsi que les loisirs et passions du prince Albert. Des statues de marbre représentant l'Europe, l'Asie, l'Afrique et l'Amérique sont disposés à chacun des angles du monument tandis que, plus haut, d'autres statues incarnent l'industrie, le commerce, l'agriculture et l'ingénierie. Encore plus haut, près du sommet, des statues en bronze dorée représentent des anges et les vertus. À la base du monument, tout autour, des frises dépeignent des peintres, poètes, sculpteurs, musiciens et architectes célèbres, reflétant le goût du prince Albert pour l'art.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -621,15 +638,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Autres jardins</t>
+          <t>Statues et monuments</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jardins à l'italienne
-Les Jardins à l'italienne, ou Italian Gardens, sont situés vers Malgourough Gate, dans le prolongement des bassins de la Serpentine. Ils ont été aménagés vers 1860 comme cadeau du Prince Albert à la Reine Victoria.
-Jardin hollandais
-Le jardin hollandais, ou Dutch Garden, appelé aussi Sunken Garden (jardin en contrebas), est situé à l'est du palais de Kensington. Ce jardin comporte un bassin entouré de parterres abondamment fleuris de tulipes. 
+          <t>La Serpentine Gallery</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Serpentine Gallery est, depuis 1970, un musée d'art contemporain à l'intérieur de Kensington Gardens. Chaque été, le musée demande à l'un des plus éminents architectes de construire un pavillon provisoire ; on a notamment pu y voir les œuvres architecturales de Zaha Hadid en 2000, Daniel Libeskind en 2001, Toyō Itō en 2002, Oscar Niemeyer en 2003,  Alvaro Siza en 2005 et Eduardo Souto de Moura, Rem Koolhaas Cecil Balmond et Ove Arup en 2006, Olafur Eliasson, Cecil Balmond et Kjetil Thorsen en 2007, Frank Gehry en 2007, SANAA en 2009, Jean Nouvel en 2010, Peter Zumthor en 2011, Ai Weiwei et Herzog &amp; de Meuron en 2012, Sou Fujimoto en 2013.
 </t>
         </is>
       </c>
@@ -655,10 +675,225 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Statues et monuments</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'orangerie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limitrophe du Palais de Kensington, l'Orangery fut construite par la Reine Anne en 1704. Bâtiment en briques, l'intérieur (qui accueille aujourd'hui un point restauration) est garni de colonnes corinthiennes soutenant un magnifique entablement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Statues et monuments</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le Diana Memorial Playground</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un énorme bateau pirate est le joyau du mini "Parc de loisirs" pour enfants, ouvert en 2000 à la mémoire de la Princesse Diana qui appréciait l'innocence des enfants. Le Diana Memorial Playground est situé juste à côté du Palais de Kensington. Ce pays merveilleux est inspiré de Peter Pan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Statues et monuments</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le Queen Caroline's Temple</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On doit à la Reine Caroline et à son jardinier les Kensington Gardens tels qu'ils sont connus aujourd'hui. Outre le Round Pound, la Long Water, elle y a fait ajouter également deux résidences d'été dont une existe encore aujourd'hui sous le nom Queen Caroline's Temple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Statues et autres monuments</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres jardins</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jardins à l'italienne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jardins à l'italienne, ou Italian Gardens, sont situés vers Malgourough Gate, dans le prolongement des bassins de la Serpentine. Ils ont été aménagés vers 1860 comme cadeau du Prince Albert à la Reine Victoria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Autres jardins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jardin hollandais</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin hollandais, ou Dutch Garden, appelé aussi Sunken Garden (jardin en contrebas), est situé à l'est du palais de Kensington. Ce jardin comporte un bassin entouré de parterres abondamment fleuris de tulipes. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kensington_Gardens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Cet article est partiellement ou en totalité issu d'une traduction du site officiel en anglais sur le Parc Royal Kensington Gardens</t>
         </is>
